--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r101_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r101_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5496" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +385,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +432,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -563,10 +587,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -610,28 +634,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -656,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -765,10 +789,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -812,28 +836,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -858,28 +882,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -967,10 +991,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1014,28 +1038,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1060,28 +1084,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1169,10 +1193,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1216,28 +1240,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1262,28 +1286,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1371,10 +1395,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1418,28 +1442,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1464,28 +1488,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1573,10 +1597,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1620,28 +1644,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1666,28 +1690,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1775,10 +1799,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1822,28 +1846,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1868,28 +1892,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1977,10 +2001,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2024,28 +2048,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2070,28 +2094,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2179,10 +2203,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="2" t="s">
+      <c r="J71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2226,28 +2250,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="2">
+      <c r="C73" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2272,28 +2296,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="2">
+      <c r="I75" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2381,10 +2405,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2428,28 +2452,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2474,28 +2498,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2583,10 +2607,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2630,28 +2654,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2676,28 +2700,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2785,10 +2809,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2832,28 +2856,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2878,28 +2902,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2987,10 +3011,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3034,28 +3058,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3080,28 +3104,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3189,10 +3213,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3236,28 +3260,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3282,28 +3306,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3391,10 +3415,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="2" t="s">
+      <c r="J113" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3438,28 +3462,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="2">
+      <c r="C115" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3484,28 +3508,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3593,10 +3617,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="2" t="s">
+      <c r="J120" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3640,28 +3664,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="2">
+      <c r="C122" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3686,28 +3710,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3795,10 +3819,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3842,28 +3866,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3888,28 +3912,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3997,10 +4021,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="2" t="s">
+      <c r="J134" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4044,28 +4068,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="2">
+      <c r="C136" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4090,28 +4114,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4199,10 +4223,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="2" t="s">
+      <c r="J141" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4246,28 +4270,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="2">
+      <c r="C143" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4292,28 +4316,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4401,10 +4425,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="2" t="s">
+      <c r="J148" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4448,28 +4472,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="2">
+      <c r="C150" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4494,28 +4518,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4603,10 +4627,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4650,28 +4674,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4696,28 +4720,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4805,10 +4829,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4852,28 +4876,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4898,28 +4922,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5007,10 +5031,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5054,28 +5078,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5100,28 +5124,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5209,10 +5233,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5256,28 +5280,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5302,28 +5326,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5411,10 +5435,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5458,28 +5482,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5504,28 +5528,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5613,10 +5637,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="2" t="s">
+      <c r="J190" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5660,28 +5684,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="2">
+      <c r="A192" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="2">
+      <c r="C192" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5706,28 +5730,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="2">
+      <c r="C194" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="2">
+      <c r="D194" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="2">
+      <c r="I194" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5815,10 +5839,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5862,28 +5886,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5908,28 +5932,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6017,10 +6041,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6064,28 +6088,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6110,28 +6134,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6219,10 +6243,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6266,28 +6290,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
+      <c r="A213" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="2">
+      <c r="C213" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6312,28 +6336,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="2">
+      <c r="I215" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6421,10 +6445,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="2" t="s">
+      <c r="J218" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6468,28 +6492,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="2">
+      <c r="A220" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="2">
+      <c r="C220" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6514,28 +6538,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="2">
+      <c r="C222" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="2">
+      <c r="D222" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="2">
+      <c r="I222" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6623,10 +6647,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6670,28 +6694,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6716,28 +6740,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6825,10 +6849,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="2" t="s">
+      <c r="J232" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6872,28 +6896,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="2">
+      <c r="A234" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="2">
+      <c r="C234" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6918,28 +6942,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="2">
+      <c r="C236" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="2">
+      <c r="D236" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="2">
+      <c r="I236" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7027,10 +7051,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="2" t="s">
+      <c r="J239" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7074,28 +7098,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="2">
+      <c r="A241" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="2">
+      <c r="C241" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7120,28 +7144,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="2">
+      <c r="C243" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="2">
+      <c r="D243" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="2">
+      <c r="I243" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7229,10 +7253,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7276,28 +7300,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="2">
+      <c r="A248" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="2">
+      <c r="C248" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7322,28 +7346,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="2">
+      <c r="C250" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="2">
+      <c r="D250" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="2">
+      <c r="I250" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7431,10 +7455,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="2" t="s">
+      <c r="J253" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7478,28 +7502,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="2">
+      <c r="A255" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="2">
+      <c r="C255" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7524,28 +7548,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="2">
+      <c r="C257" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="2">
+      <c r="D257" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="2">
+      <c r="I257" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7633,10 +7657,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="2" t="s">
+      <c r="J260" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7680,28 +7704,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
+      <c r="A262" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="2">
+      <c r="C262" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7726,28 +7750,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="2">
+      <c r="C264" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="2">
+      <c r="D264" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="2">
+      <c r="I264" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7835,10 +7859,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="2" t="s">
+      <c r="J267" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7882,28 +7906,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="2">
+      <c r="A269" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="2">
+      <c r="C269" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7928,28 +7952,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="2">
+      <c r="C271" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="2">
+      <c r="D271" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="2">
+      <c r="I271" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8037,10 +8061,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="2" t="s">
+      <c r="J274" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8084,28 +8108,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="2">
+      <c r="A276" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="2">
+      <c r="C276" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8130,28 +8154,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="2">
+      <c r="C278" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="2">
+      <c r="D278" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="2">
+      <c r="I278" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8239,10 +8263,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="2" t="s">
+      <c r="J281" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8286,28 +8310,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="2">
+      <c r="A283" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="2">
+      <c r="C283" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8332,28 +8356,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="2">
+      <c r="C285" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="2">
+      <c r="D285" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="2">
+      <c r="I285" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8441,10 +8465,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="2" t="s">
+      <c r="J288" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8488,28 +8512,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="2">
+      <c r="A290" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="2">
+      <c r="C290" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8534,28 +8558,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="2">
+      <c r="C292" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="2">
+      <c r="D292" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="2">
+      <c r="I292" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8643,10 +8667,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="2" t="s">
+      <c r="J295" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8690,28 +8714,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="2">
+      <c r="A297" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="2">
+      <c r="C297" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8736,28 +8760,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="2">
+      <c r="C299" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="2">
+      <c r="D299" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="2">
+      <c r="I299" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8845,10 +8869,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="2" t="s">
+      <c r="J302" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8892,28 +8916,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="2">
+      <c r="A304" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="2">
+      <c r="C304" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8938,28 +8962,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="2">
+      <c r="C306" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="2">
+      <c r="D306" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="2">
+      <c r="I306" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9047,10 +9071,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="2" t="s">
+      <c r="J309" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9094,28 +9118,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="2">
+      <c r="A311" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="2">
+      <c r="B311" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="2">
+      <c r="C311" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="2">
+      <c r="E311" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="2">
+      <c r="F311" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="2">
+      <c r="G311" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="2">
+      <c r="H311" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9140,28 +9164,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="2">
+      <c r="C313" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="2">
+      <c r="D313" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="2">
+      <c r="I313" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9249,10 +9273,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="2" t="s">
+      <c r="J316" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
@@ -9296,28 +9320,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s" s="2">
+      <c r="A318" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B318" t="s" s="2">
+      <c r="B318" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C318" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D318" t="s" s="2">
+      <c r="C318" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E318" t="s" s="2">
+      <c r="E318" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F318" t="s" s="2">
+      <c r="F318" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G318" t="s" s="2">
+      <c r="G318" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H318" t="s" s="2">
+      <c r="H318" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9342,28 +9366,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="B320" t="s" s="2">
+      <c r="B320" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C320" t="s" s="2">
+      <c r="C320" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D320" t="s" s="2">
+      <c r="D320" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E320" t="s" s="2">
+      <c r="E320" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F320" t="s" s="2">
+      <c r="F320" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G320" t="s" s="2">
+      <c r="G320" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H320" t="s" s="2">
+      <c r="H320" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I320" t="s" s="2">
+      <c r="I320" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9451,10 +9475,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="2" t="s">
+      <c r="J323" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9498,28 +9522,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="2">
+      <c r="A325" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="2">
+      <c r="B325" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="2">
+      <c r="C325" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="2">
+      <c r="E325" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="2">
+      <c r="F325" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="2">
+      <c r="G325" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="2">
+      <c r="H325" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9544,28 +9568,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="2">
+      <c r="C327" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="2">
+      <c r="D327" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="2">
+      <c r="I327" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9653,10 +9677,10 @@
       <c r="I330">
         <f>((C330-C329)^2+(D330- D329)^2)^.5</f>
       </c>
-      <c r="J330" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K330" s="2" t="s">
+      <c r="J330" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K330" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L330" t="n">
@@ -9700,28 +9724,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="s" s="2">
+      <c r="A332" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B332" t="s" s="2">
+      <c r="B332" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C332" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D332" t="s" s="2">
+      <c r="C332" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D332" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E332" t="s" s="2">
+      <c r="E332" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F332" t="s" s="2">
+      <c r="F332" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G332" t="s" s="2">
+      <c r="G332" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H332" t="s" s="2">
+      <c r="H332" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9746,28 +9770,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="B334" t="s" s="2">
+      <c r="B334" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C334" t="s" s="2">
+      <c r="C334" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D334" t="s" s="2">
+      <c r="D334" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E334" t="s" s="2">
+      <c r="E334" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F334" t="s" s="2">
+      <c r="F334" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G334" t="s" s="2">
+      <c r="G334" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H334" t="s" s="2">
+      <c r="H334" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I334" t="s" s="2">
+      <c r="I334" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9855,10 +9879,10 @@
       <c r="I337">
         <f>((C337-C336)^2+(D337- D336)^2)^.5</f>
       </c>
-      <c r="J337" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K337" s="2" t="s">
+      <c r="J337" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K337" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L337" t="n">
@@ -9902,28 +9926,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="s" s="2">
+      <c r="A339" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B339" t="s" s="2">
+      <c r="B339" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C339" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D339" t="s" s="2">
+      <c r="C339" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D339" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E339" t="s" s="2">
+      <c r="E339" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F339" t="s" s="2">
+      <c r="F339" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G339" t="s" s="2">
+      <c r="G339" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H339" t="s" s="2">
+      <c r="H339" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9948,28 +9972,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="B341" t="s" s="2">
+      <c r="B341" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C341" t="s" s="2">
+      <c r="C341" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D341" t="s" s="2">
+      <c r="D341" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E341" t="s" s="2">
+      <c r="E341" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F341" t="s" s="2">
+      <c r="F341" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G341" t="s" s="2">
+      <c r="G341" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H341" t="s" s="2">
+      <c r="H341" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I341" t="s" s="2">
+      <c r="I341" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -10057,10 +10081,10 @@
       <c r="I344">
         <f>((C344-C343)^2+(D344- D343)^2)^.5</f>
       </c>
-      <c r="J344" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K344" s="2" t="s">
+      <c r="J344" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K344" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L344" t="n">
@@ -10104,28 +10128,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="s" s="2">
+      <c r="A346" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B346" t="s" s="2">
+      <c r="B346" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C346" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D346" t="s" s="2">
+      <c r="C346" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D346" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E346" t="s" s="2">
+      <c r="E346" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F346" t="s" s="2">
+      <c r="F346" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G346" t="s" s="2">
+      <c r="G346" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H346" t="s" s="2">
+      <c r="H346" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -10150,28 +10174,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="B348" t="s" s="2">
+      <c r="B348" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C348" t="s" s="2">
+      <c r="C348" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D348" t="s" s="2">
+      <c r="D348" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E348" t="s" s="2">
+      <c r="E348" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F348" t="s" s="2">
+      <c r="F348" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G348" t="s" s="2">
+      <c r="G348" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H348" t="s" s="2">
+      <c r="H348" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I348" t="s" s="2">
+      <c r="I348" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -10259,10 +10283,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="2" t="s">
+      <c r="J351" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">
